--- a/SuSS/2023_Sem2_ANL488_Biz_Proj/1_Students/Student_list.xlsx
+++ b/SuSS/2023_Sem2_ANL488_Biz_Proj/1_Students/Student_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\munishkumar-gh.github.io\SuSS\2023_Sem2_ANL488_Biz_Proj\1_Students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBA0EE2-0AB7-450C-97AC-7E98600FE0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324931CF-5615-42A4-B22C-B79AAC03B1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="16320" windowHeight="15540" xr2:uid="{DDAE5875-40EE-4613-9D2A-D4E94FEDC64D}"/>
+    <workbookView xWindow="11760" yWindow="-120" windowWidth="12000" windowHeight="8685" xr2:uid="{DDAE5875-40EE-4613-9D2A-D4E94FEDC64D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t># HO KAI TOONG (UC-FT) &lt;ktho003@suss.edu.sg&gt;</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Reliability of renewable enegy to replace oil and gas as our energy of choice</t>
+  </si>
+  <si>
+    <t>Proposal</t>
   </si>
 </sst>
 </file>
@@ -509,26 +512,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964ECF99-A698-48EE-950B-7B3E62DF064D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.42578125" defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="47.42578125" style="1"/>
+    <col min="3" max="3" width="47.42578125" style="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="47.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -539,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>12</v>
       </c>
@@ -552,8 +561,11 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>13</v>
       </c>
@@ -563,8 +575,11 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>14</v>
       </c>
@@ -578,7 +593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>15</v>
       </c>
@@ -591,8 +606,11 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>16</v>
       </c>
@@ -601,7 +619,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>17</v>
       </c>
@@ -614,8 +632,11 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>18</v>
       </c>
@@ -628,8 +649,11 @@
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>19</v>
       </c>
@@ -640,6 +664,9 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
